--- a/Bases_de_Dados_(2006-2021)/Portugal LigaPro_20102011.xlsx
+++ b/Bases_de_Dados_(2006-2021)/Portugal LigaPro_20102011.xlsx
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -12140,7 +12140,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -16282,7 +16282,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -19988,7 +19988,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -21950,7 +21950,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -24566,7 +24566,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -25879,7 +25879,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -27623,7 +27623,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -29144,7 +29144,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -31329,7 +31329,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -32632,7 +32632,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -35035,7 +35035,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -36120,7 +36120,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -38305,7 +38305,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I174" t="n">
@@ -39608,7 +39608,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -42229,7 +42229,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I192" t="n">
@@ -42660,7 +42660,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -45717,7 +45717,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I208" t="n">
@@ -46584,7 +46584,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -48333,7 +48333,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I220" t="n">
@@ -49859,7 +49859,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I227" t="n">
@@ -51816,7 +51816,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
